--- a/1-empirical-rule/empirical-rule.xlsx
+++ b/1-empirical-rule/empirical-rule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\stats-ms-excel-toronto\empirical-rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\stats-ms-excel-toronto\1-empirical-rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D54264-E7B0-4FF0-BAA8-069463F7908A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2236D795-CD33-409B-9C74-E68A2FB462CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="19200" windowHeight="10520" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="18" r:id="rId1"/>
@@ -477,7 +477,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode=";;;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -820,7 +820,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode=";;;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1163,7 +1163,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode=";;;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12740,7 +12740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6275A2-A016-4709-BD42-E898D7440F19}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -12761,9 +12761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D38563D-3453-431A-AD87-AFED9D05F5AC}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13758,7 +13758,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/1-empirical-rule/empirical-rule.xlsx
+++ b/1-empirical-rule/empirical-rule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\stats-ms-excel-toronto\1-empirical-rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\stats-ms-excel-toronto\1-empirical-rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2236D795-CD33-409B-9C74-E68A2FB462CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01227F85-2683-408F-8603-C63046024E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="19200" windowHeight="10520" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Mean</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>What is the empirical rule?</t>
+  </si>
+  <si>
+    <t>pmf</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pdf</c:v>
+                  <c:v>pmf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -735,7 +738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pdf</c:v>
+                  <c:v>pmf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1078,7 +1081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pdf</c:v>
+                  <c:v>pmf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1421,7 +1424,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pdf</c:v>
+                  <c:v>pmf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1439,7 +1442,7 @@
             <c:numRef>
               <c:f>'empirical-rule-finish'!$B$8:$B$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.438960745893352E-7</c:v>
@@ -1777,7 +1780,7 @@
             <c:numRef>
               <c:f>'empirical-rule-finish'!$C$8:$C$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2364,7 +2367,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pdf</c:v>
+                  <c:v>pmf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2382,7 +2385,7 @@
             <c:numRef>
               <c:f>'empirical-rule-finish'!$B$8:$B$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.438960745893352E-7</c:v>
@@ -2720,7 +2723,7 @@
             <c:numRef>
               <c:f>'empirical-rule-finish'!$D$8:$D$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3307,7 +3310,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pdf</c:v>
+                  <c:v>pmf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3325,7 +3328,7 @@
             <c:numRef>
               <c:f>'empirical-rule-finish'!$B$8:$B$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.438960745893352E-7</c:v>
@@ -3663,7 +3666,7 @@
             <c:numRef>
               <c:f>'empirical-rule-finish'!$E$8:$E$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -12741,12 +12744,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.7" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -12762,20 +12765,20 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12786,7 +12789,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12797,12 +12800,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -12813,7 +12816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -12821,7 +12824,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -12829,12 +12832,12 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -12846,7 +12849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -12855,7 +12858,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -12864,7 +12867,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -12873,7 +12876,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -12882,7 +12885,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -12891,7 +12894,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -12900,7 +12903,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -12909,7 +12912,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>8</v>
       </c>
@@ -12918,7 +12921,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -12927,7 +12930,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -12936,7 +12939,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>11</v>
       </c>
@@ -12945,7 +12948,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -12954,7 +12957,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -12963,7 +12966,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>14</v>
       </c>
@@ -12972,7 +12975,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -12981,7 +12984,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -12990,7 +12993,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -12999,7 +13002,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -13008,7 +13011,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -13017,7 +13020,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -13026,7 +13029,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -13035,7 +13038,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -13044,7 +13047,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -13053,7 +13056,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>24</v>
       </c>
@@ -13062,7 +13065,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>25</v>
       </c>
@@ -13071,7 +13074,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -13080,7 +13083,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -13089,7 +13092,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>28</v>
       </c>
@@ -13098,7 +13101,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>29</v>
       </c>
@@ -13107,7 +13110,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>30</v>
       </c>
@@ -13116,7 +13119,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -13125,7 +13128,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>32</v>
       </c>
@@ -13134,7 +13137,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>33</v>
       </c>
@@ -13143,7 +13146,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>34</v>
       </c>
@@ -13152,7 +13155,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>35</v>
       </c>
@@ -13161,7 +13164,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -13170,7 +13173,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>37</v>
       </c>
@@ -13179,7 +13182,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>38</v>
       </c>
@@ -13188,7 +13191,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>39</v>
       </c>
@@ -13197,7 +13200,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>40</v>
       </c>
@@ -13206,7 +13209,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>41</v>
       </c>
@@ -13215,7 +13218,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>42</v>
       </c>
@@ -13224,7 +13227,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>43</v>
       </c>
@@ -13233,7 +13236,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>44</v>
       </c>
@@ -13242,7 +13245,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45</v>
       </c>
@@ -13251,7 +13254,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>46</v>
       </c>
@@ -13260,7 +13263,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>47</v>
       </c>
@@ -13269,7 +13272,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>48</v>
       </c>
@@ -13278,7 +13281,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>49</v>
       </c>
@@ -13287,7 +13290,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>50</v>
       </c>
@@ -13296,7 +13299,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>51</v>
       </c>
@@ -13305,7 +13308,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>52</v>
       </c>
@@ -13314,7 +13317,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>53</v>
       </c>
@@ -13323,7 +13326,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>54</v>
       </c>
@@ -13332,7 +13335,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>55</v>
       </c>
@@ -13341,7 +13344,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>56</v>
       </c>
@@ -13350,7 +13353,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>57</v>
       </c>
@@ -13359,7 +13362,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>58</v>
       </c>
@@ -13368,7 +13371,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>59</v>
       </c>
@@ -13377,7 +13380,7 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>60</v>
       </c>
@@ -13386,7 +13389,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>61</v>
       </c>
@@ -13395,7 +13398,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>62</v>
       </c>
@@ -13404,7 +13407,7 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>63</v>
       </c>
@@ -13413,7 +13416,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>64</v>
       </c>
@@ -13422,7 +13425,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>65</v>
       </c>
@@ -13431,7 +13434,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>66</v>
       </c>
@@ -13440,7 +13443,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>67</v>
       </c>
@@ -13449,7 +13452,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>68</v>
       </c>
@@ -13458,7 +13461,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>69</v>
       </c>
@@ -13467,7 +13470,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>70</v>
       </c>
@@ -13476,7 +13479,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>71</v>
       </c>
@@ -13485,7 +13488,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>72</v>
       </c>
@@ -13494,7 +13497,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>73</v>
       </c>
@@ -13503,7 +13506,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>74</v>
       </c>
@@ -13512,7 +13515,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>75</v>
       </c>
@@ -13521,7 +13524,7 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>76</v>
       </c>
@@ -13530,7 +13533,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>77</v>
       </c>
@@ -13539,7 +13542,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>78</v>
       </c>
@@ -13548,7 +13551,7 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>79</v>
       </c>
@@ -13557,7 +13560,7 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>80</v>
       </c>
@@ -13566,7 +13569,7 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>81</v>
       </c>
@@ -13575,7 +13578,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>82</v>
       </c>
@@ -13584,7 +13587,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>83</v>
       </c>
@@ -13593,7 +13596,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>84</v>
       </c>
@@ -13602,7 +13605,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>85</v>
       </c>
@@ -13611,7 +13614,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -13620,7 +13623,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>87</v>
       </c>
@@ -13629,7 +13632,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>88</v>
       </c>
@@ -13638,7 +13641,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>89</v>
       </c>
@@ -13647,7 +13650,7 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>90</v>
       </c>
@@ -13656,7 +13659,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>91</v>
       </c>
@@ -13665,7 +13668,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>92</v>
       </c>
@@ -13674,7 +13677,7 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>93</v>
       </c>
@@ -13683,7 +13686,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>94</v>
       </c>
@@ -13692,7 +13695,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>95</v>
       </c>
@@ -13701,7 +13704,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>96</v>
       </c>
@@ -13710,7 +13713,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>97</v>
       </c>
@@ -13719,7 +13722,7 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>98</v>
       </c>
@@ -13728,7 +13731,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>99</v>
       </c>
@@ -13737,7 +13740,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>100</v>
       </c>
@@ -13758,20 +13761,20 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13782,7 +13785,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13793,12 +13796,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -13809,7 +13812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -13826,7 +13829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -13843,12 +13846,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -13860,2109 +13863,2110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f t="shared" ref="B8:B39" si="0">_xlfn.NORM.DIST(A8,$B$1,$B$2,FALSE)</f>
         <v>2.438960745893352E-7</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:E27" si="1">IF(AND($A8&gt;C$5,$A8&lt;C$6),$B8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C8" s="4" t="str">
+        <f>IF(AND($A8&gt;C$5,$A8&lt;C$6),$B8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>IF(AND($A8&gt;D$5,$A8&lt;D$6),$B8,"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>IF(AND($A8&gt;E$5,$A8&lt;E$6),$B8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>3.9612990910320755E-7</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C9" s="4" t="str">
+        <f t="shared" ref="C9:E72" si="1">IF(AND($A9&gt;C$5,$A9&lt;C$6),$B9,"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6.3698251788670893E-7</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>1.014085206548676E-6</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>1.5983741106905478E-6</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>2.4942471290053532E-6</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>3.8535196742087128E-6</v>
       </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>5.8943067756539858E-6</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>8.9261657177132918E-6</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>1.3383022576488536E-5</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>1.9865547139277272E-5</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>2.9194692579146026E-5</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>4.2478027055075142E-5</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>6.1190193011377187E-5</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>8.726826950457601E-5</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>1.2322191684730198E-4</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>1.722568939053681E-4</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>2.3840882014648405E-4</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>3.2668190561999186E-4</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>4.4318484119380076E-4</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>5.9525324197758534E-4</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:E47" si="2">IF(AND($A28&gt;C$5,$A28&lt;C$6),$B28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="2"/>
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>7.9154515829799694E-4</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="2"/>
+      <c r="C29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>1.0420934814422591E-3</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="2"/>
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>1.3582969233685612E-3</v>
       </c>
-      <c r="C31" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="2"/>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>1.752830049356854E-3</v>
       </c>
-      <c r="C32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="2"/>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>2.2394530294842902E-3</v>
       </c>
-      <c r="C33" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="2"/>
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>2.8327037741601186E-3</v>
       </c>
-      <c r="C34" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="2"/>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>3.5474592846231421E-3</v>
       </c>
-      <c r="C35" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="2"/>
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>4.3983595980427196E-3</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="2"/>
+      <c r="C36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>5.3990966513188061E-3</v>
       </c>
-      <c r="C37" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="2"/>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>31</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>6.5615814774676604E-3</v>
       </c>
-      <c r="C38" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="2"/>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
         <v>6.5615814774676604E-3</v>
       </c>
-      <c r="E38" s="3">
-        <f t="shared" si="2"/>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>32</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>7.8950158300894139E-3</v>
       </c>
-      <c r="C39" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="2"/>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
         <v>7.8950158300894139E-3</v>
       </c>
-      <c r="E39" s="3">
-        <f t="shared" si="2"/>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>33</v>
       </c>
-      <c r="B40" s="3">
-        <f t="shared" ref="B40:B71" si="3">_xlfn.NORM.DIST(A40,$B$1,$B$2,FALSE)</f>
+      <c r="B40" s="4">
+        <f t="shared" ref="B40:B71" si="2">_xlfn.NORM.DIST(A40,$B$1,$B$2,FALSE)</f>
         <v>9.4049077376886937E-3</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="2"/>
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
         <v>9.4049077376886937E-3</v>
       </c>
-      <c r="E40" s="3">
-        <f t="shared" si="2"/>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>34</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1092083467945555E-2</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1092083467945555E-2</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1092083467945555E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2951759566589173E-2</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2951759566589173E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2951759566589173E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>36</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4972746563574486E-2</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4972746563574486E-2</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4972746563574486E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7136859204780735E-2</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7136859204780735E-2</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7136859204780735E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9418605498321296E-2</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9418605498321296E-2</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9418605498321296E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1785217703255054E-2</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1785217703255054E-2</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1785217703255054E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>40</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4197072451914336E-2</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4197072451914336E-2</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4197072451914336E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>41</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>42</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>43</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>45</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>46</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>47</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>48</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>49</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9894228040143274E-2</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9894228040143274E-2</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9894228040143274E-2</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9894228040143274E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>51</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9695254747701178E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>52</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9104269397545591E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>53</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8138781546052408E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>54</v>
+      </c>
+      <c r="B61" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6827014030332332E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>55</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5206532676429952E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>56</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3322460289179963E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>57</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1225393336676129E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>58</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8969155276148274E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>59</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6608524989875482E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>60</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4197072451914336E-2</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4197072451914336E-2</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4197072451914336E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>61</v>
+      </c>
+      <c r="B68" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1785217703255054E-2</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1785217703255054E-2</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1785217703255054E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>62</v>
+      </c>
+      <c r="B69" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9418605498321296E-2</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9418605498321296E-2</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9418605498321296E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>63</v>
+      </c>
+      <c r="B70" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7136859204780735E-2</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7136859204780735E-2</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7136859204780735E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>64</v>
+      </c>
+      <c r="B71" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4972746563574486E-2</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4972746563574486E-2</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4972746563574486E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>65</v>
+      </c>
+      <c r="B72" s="4">
+        <f t="shared" ref="B72:B103" si="3">_xlfn.NORM.DIST(A72,$B$1,$B$2,FALSE)</f>
+        <v>1.2951759566589173E-2</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2951759566589173E-2</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2951759566589173E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>66</v>
+      </c>
+      <c r="B73" s="4">
         <f t="shared" si="3"/>
         <v>1.1092083467945555E-2</v>
       </c>
-      <c r="C41" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="2"/>
+      <c r="C73" s="4" t="str">
+        <f t="shared" ref="C73:E107" si="4">IF(AND($A73&gt;C$5,$A73&lt;C$6),$B73,"")</f>
+        <v/>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="4"/>
         <v>1.1092083467945555E-2</v>
       </c>
-      <c r="E41" s="3">
-        <f t="shared" si="2"/>
+      <c r="E73" s="4">
+        <f t="shared" si="4"/>
         <v>1.1092083467945555E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A42" s="3">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2951759566589173E-2</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2951759566589173E-2</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2951759566589173E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="3">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4972746563574486E-2</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4972746563574486E-2</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4972746563574486E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="3">
-        <v>37</v>
-      </c>
-      <c r="B44" s="3">
-        <f t="shared" si="3"/>
-        <v>1.7136859204780735E-2</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7136859204780735E-2</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7136859204780735E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="3">
-        <v>38</v>
-      </c>
-      <c r="B45" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9418605498321296E-2</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="2"/>
-        <v>1.9418605498321296E-2</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="2"/>
-        <v>1.9418605498321296E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="3">
-        <v>39</v>
-      </c>
-      <c r="B46" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1785217703255054E-2</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1785217703255054E-2</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1785217703255054E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A47" s="3">
-        <v>40</v>
-      </c>
-      <c r="B47" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4197072451914336E-2</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4197072451914336E-2</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4197072451914336E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A48" s="3">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3">
-        <f t="shared" si="3"/>
-        <v>2.6608524989875482E-2</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" ref="C48:E67" si="4">IF(AND($A48&gt;C$5,$A48&lt;C$6),$B48,0)</f>
-        <v>2.6608524989875482E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6608524989875482E-2</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6608524989875482E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A49" s="3">
-        <v>42</v>
-      </c>
-      <c r="B49" s="3">
-        <f t="shared" si="3"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A50" s="3">
-        <v>43</v>
-      </c>
-      <c r="B50" s="3">
-        <f t="shared" si="3"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A51" s="3">
-        <v>44</v>
-      </c>
-      <c r="B51" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A52" s="3">
-        <v>45</v>
-      </c>
-      <c r="B52" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A53" s="3">
-        <v>46</v>
-      </c>
-      <c r="B53" s="3">
-        <f t="shared" si="3"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A54" s="3">
-        <v>47</v>
-      </c>
-      <c r="B54" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="4"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="4"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="4"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A55" s="3">
-        <v>48</v>
-      </c>
-      <c r="B55" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A56" s="3">
-        <v>49</v>
-      </c>
-      <c r="B56" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A57" s="3">
-        <v>50</v>
-      </c>
-      <c r="B57" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9894228040143274E-2</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9894228040143274E-2</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9894228040143274E-2</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9894228040143274E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A58" s="3">
-        <v>51</v>
-      </c>
-      <c r="B58" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9695254747701178E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A59" s="3">
-        <v>52</v>
-      </c>
-      <c r="B59" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="4"/>
-        <v>3.9104269397545591E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A60" s="3">
-        <v>53</v>
-      </c>
-      <c r="B60" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="4"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="4"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="4"/>
-        <v>3.8138781546052408E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A61" s="3">
-        <v>54</v>
-      </c>
-      <c r="B61" s="3">
-        <f t="shared" si="3"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6827014030332332E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A62" s="3">
-        <v>55</v>
-      </c>
-      <c r="B62" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5206532676429952E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A63" s="3">
-        <v>56</v>
-      </c>
-      <c r="B63" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3322460289179963E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A64" s="3">
-        <v>57</v>
-      </c>
-      <c r="B64" s="3">
-        <f t="shared" si="3"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1225393336676129E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A65" s="3">
-        <v>58</v>
-      </c>
-      <c r="B65" s="3">
-        <f t="shared" si="3"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8969155276148274E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A66" s="3">
-        <v>59</v>
-      </c>
-      <c r="B66" s="3">
-        <f t="shared" si="3"/>
-        <v>2.6608524989875482E-2</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6608524989875482E-2</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6608524989875482E-2</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6608524989875482E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A67" s="3">
-        <v>60</v>
-      </c>
-      <c r="B67" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4197072451914336E-2</v>
-      </c>
-      <c r="C67" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" si="4"/>
-        <v>2.4197072451914336E-2</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" si="4"/>
-        <v>2.4197072451914336E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A68" s="3">
-        <v>61</v>
-      </c>
-      <c r="B68" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1785217703255054E-2</v>
-      </c>
-      <c r="C68" s="3">
-        <f t="shared" ref="C68:E87" si="5">IF(AND($A68&gt;C$5,$A68&lt;C$6),$B68,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" si="5"/>
-        <v>2.1785217703255054E-2</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="5"/>
-        <v>2.1785217703255054E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A69" s="3">
-        <v>62</v>
-      </c>
-      <c r="B69" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9418605498321296E-2</v>
-      </c>
-      <c r="C69" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D69" s="3">
-        <f t="shared" si="5"/>
-        <v>1.9418605498321296E-2</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="5"/>
-        <v>1.9418605498321296E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A70" s="3">
-        <v>63</v>
-      </c>
-      <c r="B70" s="3">
-        <f t="shared" si="3"/>
-        <v>1.7136859204780735E-2</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" si="5"/>
-        <v>1.7136859204780735E-2</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="5"/>
-        <v>1.7136859204780735E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A71" s="3">
-        <v>64</v>
-      </c>
-      <c r="B71" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4972746563574486E-2</v>
-      </c>
-      <c r="C71" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D71" s="3">
-        <f t="shared" si="5"/>
-        <v>1.4972746563574486E-2</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="5"/>
-        <v>1.4972746563574486E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A72" s="3">
-        <v>65</v>
-      </c>
-      <c r="B72" s="3">
-        <f t="shared" ref="B72:B103" si="6">_xlfn.NORM.DIST(A72,$B$1,$B$2,FALSE)</f>
-        <v>1.2951759566589173E-2</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
-        <f t="shared" si="5"/>
-        <v>1.2951759566589173E-2</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="5"/>
-        <v>1.2951759566589173E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A73" s="3">
-        <v>66</v>
-      </c>
-      <c r="B73" s="3">
-        <f t="shared" si="6"/>
-        <v>1.1092083467945555E-2</v>
-      </c>
-      <c r="C73" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1092083467945555E-2</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1092083467945555E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>67</v>
       </c>
-      <c r="B74" s="3">
-        <f t="shared" si="6"/>
+      <c r="B74" s="4">
+        <f t="shared" si="3"/>
         <v>9.4049077376886937E-3</v>
       </c>
-      <c r="C74" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <f t="shared" si="5"/>
+      <c r="C74" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="4"/>
         <v>9.4049077376886937E-3</v>
       </c>
-      <c r="E74" s="3">
-        <f t="shared" si="5"/>
+      <c r="E74" s="4">
+        <f t="shared" si="4"/>
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>68</v>
       </c>
-      <c r="B75" s="3">
-        <f t="shared" si="6"/>
+      <c r="B75" s="4">
+        <f t="shared" si="3"/>
         <v>7.8950158300894139E-3</v>
       </c>
-      <c r="C75" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" si="5"/>
+      <c r="C75" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="4"/>
         <v>7.8950158300894139E-3</v>
       </c>
-      <c r="E75" s="3">
-        <f t="shared" si="5"/>
+      <c r="E75" s="4">
+        <f t="shared" si="4"/>
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>69</v>
       </c>
-      <c r="B76" s="3">
-        <f t="shared" si="6"/>
+      <c r="B76" s="4">
+        <f t="shared" si="3"/>
         <v>6.5615814774676604E-3</v>
       </c>
-      <c r="C76" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D76" s="3">
-        <f t="shared" si="5"/>
+      <c r="C76" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="4"/>
         <v>6.5615814774676604E-3</v>
       </c>
-      <c r="E76" s="3">
-        <f t="shared" si="5"/>
+      <c r="E76" s="4">
+        <f t="shared" si="4"/>
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>70</v>
       </c>
-      <c r="B77" s="3">
-        <f t="shared" si="6"/>
+      <c r="B77" s="4">
+        <f t="shared" si="3"/>
         <v>5.3990966513188061E-3</v>
       </c>
-      <c r="C77" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="5"/>
+      <c r="C77" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="4"/>
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>71</v>
       </c>
-      <c r="B78" s="3">
-        <f t="shared" si="6"/>
+      <c r="B78" s="4">
+        <f t="shared" si="3"/>
         <v>4.3983595980427196E-3</v>
       </c>
-      <c r="C78" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D78" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" si="5"/>
+      <c r="C78" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="4"/>
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>72</v>
       </c>
-      <c r="B79" s="3">
-        <f t="shared" si="6"/>
+      <c r="B79" s="4">
+        <f t="shared" si="3"/>
         <v>3.5474592846231421E-3</v>
       </c>
-      <c r="C79" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" si="5"/>
+      <c r="C79" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="4"/>
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>73</v>
       </c>
-      <c r="B80" s="3">
-        <f t="shared" si="6"/>
+      <c r="B80" s="4">
+        <f t="shared" si="3"/>
         <v>2.8327037741601186E-3</v>
       </c>
-      <c r="C80" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" si="5"/>
+      <c r="C80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="4"/>
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>74</v>
       </c>
-      <c r="B81" s="3">
-        <f t="shared" si="6"/>
+      <c r="B81" s="4">
+        <f t="shared" si="3"/>
         <v>2.2394530294842902E-3</v>
       </c>
-      <c r="C81" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D81" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" si="5"/>
+      <c r="C81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="4"/>
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>75</v>
       </c>
-      <c r="B82" s="3">
-        <f t="shared" si="6"/>
+      <c r="B82" s="4">
+        <f t="shared" si="3"/>
         <v>1.752830049356854E-3</v>
       </c>
-      <c r="C82" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" si="5"/>
+      <c r="C82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="4"/>
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>76</v>
       </c>
-      <c r="B83" s="3">
-        <f t="shared" si="6"/>
+      <c r="B83" s="4">
+        <f t="shared" si="3"/>
         <v>1.3582969233685612E-3</v>
       </c>
-      <c r="C83" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D83" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" si="5"/>
+      <c r="C83" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="4"/>
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>77</v>
       </c>
-      <c r="B84" s="3">
-        <f t="shared" si="6"/>
+      <c r="B84" s="4">
+        <f t="shared" si="3"/>
         <v>1.0420934814422591E-3</v>
       </c>
-      <c r="C84" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" si="5"/>
+      <c r="C84" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D84" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="4"/>
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>78</v>
       </c>
-      <c r="B85" s="3">
-        <f t="shared" si="6"/>
+      <c r="B85" s="4">
+        <f t="shared" si="3"/>
         <v>7.9154515829799694E-4</v>
       </c>
-      <c r="C85" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D85" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" si="5"/>
+      <c r="C85" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="4"/>
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>79</v>
       </c>
-      <c r="B86" s="3">
-        <f t="shared" si="6"/>
+      <c r="B86" s="4">
+        <f t="shared" si="3"/>
         <v>5.9525324197758534E-4</v>
       </c>
-      <c r="C86" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D86" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" si="5"/>
+      <c r="C86" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="4"/>
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>80</v>
       </c>
-      <c r="B87" s="3">
-        <f t="shared" si="6"/>
+      <c r="B87" s="4">
+        <f t="shared" si="3"/>
         <v>4.4318484119380076E-4</v>
       </c>
-      <c r="C87" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D87" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C87" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>81</v>
       </c>
-      <c r="B88" s="3">
-        <f t="shared" si="6"/>
+      <c r="B88" s="4">
+        <f t="shared" si="3"/>
         <v>3.2668190561999186E-4</v>
       </c>
-      <c r="C88" s="3">
-        <f t="shared" ref="C88:E107" si="7">IF(AND($A88&gt;C$5,$A88&lt;C$6),$B88,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>82</v>
       </c>
-      <c r="B89" s="3">
-        <f t="shared" si="6"/>
+      <c r="B89" s="4">
+        <f t="shared" si="3"/>
         <v>2.3840882014648405E-4</v>
       </c>
-      <c r="C89" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D89" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C89" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>83</v>
       </c>
-      <c r="B90" s="3">
-        <f t="shared" si="6"/>
+      <c r="B90" s="4">
+        <f t="shared" si="3"/>
         <v>1.722568939053681E-4</v>
       </c>
-      <c r="C90" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D90" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C90" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D90" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>84</v>
       </c>
-      <c r="B91" s="3">
-        <f t="shared" si="6"/>
+      <c r="B91" s="4">
+        <f t="shared" si="3"/>
         <v>1.2322191684730198E-4</v>
       </c>
-      <c r="C91" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D91" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C91" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>85</v>
       </c>
-      <c r="B92" s="3">
-        <f t="shared" si="6"/>
+      <c r="B92" s="4">
+        <f t="shared" si="3"/>
         <v>8.726826950457601E-5</v>
       </c>
-      <c r="C92" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>86</v>
       </c>
-      <c r="B93" s="3">
-        <f t="shared" si="6"/>
+      <c r="B93" s="4">
+        <f t="shared" si="3"/>
         <v>6.1190193011377187E-5</v>
       </c>
-      <c r="C93" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C93" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>87</v>
       </c>
-      <c r="B94" s="3">
-        <f t="shared" si="6"/>
+      <c r="B94" s="4">
+        <f t="shared" si="3"/>
         <v>4.2478027055075142E-5</v>
       </c>
-      <c r="C94" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D94" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C94" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D94" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>88</v>
       </c>
-      <c r="B95" s="3">
-        <f t="shared" si="6"/>
+      <c r="B95" s="4">
+        <f t="shared" si="3"/>
         <v>2.9194692579146026E-5</v>
       </c>
-      <c r="C95" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D95" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C95" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>89</v>
       </c>
-      <c r="B96" s="3">
-        <f t="shared" si="6"/>
+      <c r="B96" s="4">
+        <f t="shared" si="3"/>
         <v>1.9865547139277272E-5</v>
       </c>
-      <c r="C96" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D96" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C96" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D96" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>90</v>
       </c>
-      <c r="B97" s="3">
-        <f t="shared" si="6"/>
+      <c r="B97" s="4">
+        <f t="shared" si="3"/>
         <v>1.3383022576488536E-5</v>
       </c>
-      <c r="C97" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D97" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C97" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D97" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>91</v>
       </c>
-      <c r="B98" s="3">
-        <f t="shared" si="6"/>
+      <c r="B98" s="4">
+        <f t="shared" si="3"/>
         <v>8.9261657177132918E-6</v>
       </c>
-      <c r="C98" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D98" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C98" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>92</v>
       </c>
-      <c r="B99" s="3">
-        <f t="shared" si="6"/>
+      <c r="B99" s="4">
+        <f t="shared" si="3"/>
         <v>5.8943067756539858E-6</v>
       </c>
-      <c r="C99" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C99" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D99" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>93</v>
       </c>
-      <c r="B100" s="3">
-        <f t="shared" si="6"/>
+      <c r="B100" s="4">
+        <f t="shared" si="3"/>
         <v>3.8535196742087128E-6</v>
       </c>
-      <c r="C100" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C100" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D100" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>94</v>
       </c>
-      <c r="B101" s="3">
-        <f t="shared" si="6"/>
+      <c r="B101" s="4">
+        <f t="shared" si="3"/>
         <v>2.4942471290053532E-6</v>
       </c>
-      <c r="C101" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C101" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>95</v>
       </c>
-      <c r="B102" s="3">
-        <f t="shared" si="6"/>
+      <c r="B102" s="4">
+        <f t="shared" si="3"/>
         <v>1.5983741106905478E-6</v>
       </c>
-      <c r="C102" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C102" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D102" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>96</v>
       </c>
-      <c r="B103" s="3">
-        <f t="shared" si="6"/>
+      <c r="B103" s="4">
+        <f t="shared" si="3"/>
         <v>1.014085206548676E-6</v>
       </c>
-      <c r="C103" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C103" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D103" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E103" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>97</v>
       </c>
-      <c r="B104" s="3">
-        <f t="shared" ref="B104:B107" si="8">_xlfn.NORM.DIST(A104,$B$1,$B$2,FALSE)</f>
+      <c r="B104" s="4">
+        <f t="shared" ref="B104:B107" si="5">_xlfn.NORM.DIST(A104,$B$1,$B$2,FALSE)</f>
         <v>6.3698251788670893E-7</v>
       </c>
-      <c r="C104" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E104" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C104" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D104" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>98</v>
       </c>
-      <c r="B105" s="3">
-        <f t="shared" si="8"/>
+      <c r="B105" s="4">
+        <f t="shared" si="5"/>
         <v>3.9612990910320755E-7</v>
       </c>
-      <c r="C105" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D105" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E105" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C105" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>99</v>
       </c>
-      <c r="B106" s="3">
-        <f t="shared" si="8"/>
+      <c r="B106" s="4">
+        <f t="shared" si="5"/>
         <v>2.438960745893352E-7</v>
       </c>
-      <c r="C106" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D106" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E106" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C106" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>100</v>
       </c>
-      <c r="B107" s="3">
-        <f t="shared" si="8"/>
+      <c r="B107" s="4">
+        <f t="shared" si="5"/>
         <v>1.4867195147342977E-7</v>
       </c>
-      <c r="C107" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D107" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E107" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="C107" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15975,16 +15979,16 @@
       <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15995,7 +15999,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16006,12 +16010,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -16022,7 +16026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -16039,7 +16043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -16056,7 +16060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -16073,7 +16077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -16094,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -16115,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -16136,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -16157,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -16178,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -16199,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -16220,7 +16224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -16262,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -16283,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -16304,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -16325,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -16346,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -16367,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -16388,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>16</v>
       </c>
@@ -16409,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -16430,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>18</v>
       </c>
@@ -16451,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -16472,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -16493,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -16514,7 +16518,7 @@
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>22</v>
       </c>
@@ -16535,7 +16539,7 @@
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>23</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24</v>
       </c>
@@ -16577,7 +16581,7 @@
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -16598,7 +16602,7 @@
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>26</v>
       </c>
@@ -16619,7 +16623,7 @@
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>28</v>
       </c>
@@ -16661,7 +16665,7 @@
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>29</v>
       </c>
@@ -16682,7 +16686,7 @@
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>30</v>
       </c>
@@ -16703,7 +16707,7 @@
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>31</v>
       </c>
@@ -16724,7 +16728,7 @@
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>32</v>
       </c>
@@ -16745,7 +16749,7 @@
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>33</v>
       </c>
@@ -16766,7 +16770,7 @@
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>34</v>
       </c>
@@ -16787,7 +16791,7 @@
         <v>1.1092083467945555E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>35</v>
       </c>
@@ -16808,7 +16812,7 @@
         <v>1.2951759566589173E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>36</v>
       </c>
@@ -16829,7 +16833,7 @@
         <v>1.4972746563574486E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>37</v>
       </c>
@@ -16850,7 +16854,7 @@
         <v>1.7136859204780735E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>38</v>
       </c>
@@ -16871,7 +16875,7 @@
         <v>1.9418605498321296E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>39</v>
       </c>
@@ -16892,7 +16896,7 @@
         <v>2.1785217703255054E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>40</v>
       </c>
@@ -16913,7 +16917,7 @@
         <v>2.4197072451914336E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>41</v>
       </c>
@@ -16934,7 +16938,7 @@
         <v>2.6608524989875482E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>42</v>
       </c>
@@ -16955,7 +16959,7 @@
         <v>2.8969155276148274E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43</v>
       </c>
@@ -16976,7 +16980,7 @@
         <v>3.1225393336676129E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>44</v>
       </c>
@@ -16997,7 +17001,7 @@
         <v>3.3322460289179963E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45</v>
       </c>
@@ -17018,7 +17022,7 @@
         <v>3.5206532676429952E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>46</v>
       </c>
@@ -17039,7 +17043,7 @@
         <v>3.6827014030332332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>47</v>
       </c>
@@ -17060,7 +17064,7 @@
         <v>3.8138781546052408E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>48</v>
       </c>
@@ -17081,7 +17085,7 @@
         <v>3.9104269397545591E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>49</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>3.9695254747701178E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>50</v>
       </c>
@@ -17123,7 +17127,7 @@
         <v>3.9894228040143274E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>51</v>
       </c>
@@ -17144,7 +17148,7 @@
         <v>3.9695254747701178E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>52</v>
       </c>
@@ -17165,7 +17169,7 @@
         <v>3.9104269397545591E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>53</v>
       </c>
@@ -17186,7 +17190,7 @@
         <v>3.8138781546052408E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>54</v>
       </c>
@@ -17207,7 +17211,7 @@
         <v>3.6827014030332332E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>55</v>
       </c>
@@ -17228,7 +17232,7 @@
         <v>3.5206532676429952E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>56</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>3.3322460289179963E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>57</v>
       </c>
@@ -17270,7 +17274,7 @@
         <v>3.1225393336676129E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>58</v>
       </c>
@@ -17291,7 +17295,7 @@
         <v>2.8969155276148274E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>59</v>
       </c>
@@ -17312,7 +17316,7 @@
         <v>2.6608524989875482E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>60</v>
       </c>
@@ -17333,7 +17337,7 @@
         <v>2.4197072451914336E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>61</v>
       </c>
@@ -17354,7 +17358,7 @@
         <v>2.1785217703255054E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>62</v>
       </c>
@@ -17375,7 +17379,7 @@
         <v>1.9418605498321296E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>63</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>1.7136859204780735E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>64</v>
       </c>
@@ -17417,7 +17421,7 @@
         <v>1.4972746563574486E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>65</v>
       </c>
@@ -17438,7 +17442,7 @@
         <v>1.2951759566589173E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>66</v>
       </c>
@@ -17459,7 +17463,7 @@
         <v>1.1092083467945555E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>67</v>
       </c>
@@ -17480,7 +17484,7 @@
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>68</v>
       </c>
@@ -17501,7 +17505,7 @@
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>69</v>
       </c>
@@ -17522,7 +17526,7 @@
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>70</v>
       </c>
@@ -17543,7 +17547,7 @@
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>71</v>
       </c>
@@ -17564,7 +17568,7 @@
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>72</v>
       </c>
@@ -17585,7 +17589,7 @@
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>73</v>
       </c>
@@ -17606,7 +17610,7 @@
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>74</v>
       </c>
@@ -17627,7 +17631,7 @@
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>75</v>
       </c>
@@ -17648,7 +17652,7 @@
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>76</v>
       </c>
@@ -17669,7 +17673,7 @@
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>77</v>
       </c>
@@ -17690,7 +17694,7 @@
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>78</v>
       </c>
@@ -17711,7 +17715,7 @@
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>79</v>
       </c>
@@ -17732,7 +17736,7 @@
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>80</v>
       </c>
@@ -17753,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>81</v>
       </c>
@@ -17774,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>82</v>
       </c>
@@ -17795,7 +17799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>83</v>
       </c>
@@ -17816,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>84</v>
       </c>
@@ -17837,7 +17841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>85</v>
       </c>
@@ -17858,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -17879,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>87</v>
       </c>
@@ -17900,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>88</v>
       </c>
@@ -17921,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>89</v>
       </c>
@@ -17942,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>90</v>
       </c>
@@ -17963,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>91</v>
       </c>
@@ -17984,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>92</v>
       </c>
@@ -18005,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>93</v>
       </c>
@@ -18026,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>94</v>
       </c>
@@ -18047,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>95</v>
       </c>
@@ -18068,7 +18072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>96</v>
       </c>
@@ -18089,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>97</v>
       </c>
@@ -18110,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>98</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>99</v>
       </c>
@@ -18152,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>100</v>
       </c>
